--- a/Seasonal Grp Means Table.xlsx
+++ b/Seasonal Grp Means Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Desktop/Heloderma Spatial/Heloderma Spatial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6578DF-E7B8-D843-80BC-6067E10387FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B753E94B-7FEA-C14C-BCDB-61F0994234F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14220" yWindow="1160" windowWidth="13860" windowHeight="13600" xr2:uid="{45E31E4A-E781-9149-8FF7-8A091B9BE969}"/>
   </bookViews>
@@ -99,6 +99,77 @@
     <t>23.7 ± 3.7 S.E.</t>
   </si>
   <si>
+    <t>15.7 ± 3.9 S.E.</t>
+  </si>
+  <si>
+    <t>4.5 ± 1.5 S.E.</t>
+  </si>
+  <si>
+    <t>1.2 ± 0.8 S.E.</t>
+  </si>
+  <si>
+    <t>29.5 ± 4.8 S.E.</t>
+  </si>
+  <si>
+    <t>23.0 ± 4.0 S.E.</t>
+  </si>
+  <si>
+    <t>24.2 ± 3.7 S.E.</t>
+  </si>
+  <si>
+    <t>1.4 ± 0.7 S.E.</t>
+  </si>
+  <si>
+    <t>0.3 ± 0.1 S.E.</t>
+  </si>
+  <si>
+    <t>2.1 ± 0.8 S.E.</t>
+  </si>
+  <si>
+    <t>2.1 ± 0.9 S.E.</t>
+  </si>
+  <si>
+    <t>10.2 ± 2.4 S.E.</t>
+  </si>
+  <si>
+    <t>18.3 ± 5.4 S.E.</t>
+  </si>
+  <si>
+    <t>10.7 ± 2.6 S.E.</t>
+  </si>
+  <si>
+    <t>10.4 ± 2.4 S.E.</t>
+  </si>
+  <si>
+    <t>3.6 ± 1.7 S.E.</t>
+  </si>
+  <si>
+    <t>0.6 ± 0.5 S.E.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 7 |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group means of seasonal home ranges between Stone Canyon (subsidized) and Owl Head Buttes (non-subsidized). These means are averaged across sex.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -118,79 +189,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Group means of seasonal home ranges between Stone Canyon (subsidized) and Owl Head Buttes (non-subsidized). These means are averaged across sex.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Table 9 |</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Seasonal home range means between Stone Canyon (subsidized) and Owl Head Buttes (non-subsidized) popuations for males and females. These are raw means before being adjusted for environment, season, sex, and sample size.</t>
     </r>
-  </si>
-  <si>
-    <t>15.7 ± 3.9 S.E.</t>
-  </si>
-  <si>
-    <t>4.5 ± 1.5 S.E.</t>
-  </si>
-  <si>
-    <t>1.2 ± 0.8 S.E.</t>
-  </si>
-  <si>
-    <t>29.5 ± 4.8 S.E.</t>
-  </si>
-  <si>
-    <t>23.0 ± 4.0 S.E.</t>
-  </si>
-  <si>
-    <t>24.2 ± 3.7 S.E.</t>
-  </si>
-  <si>
-    <t>1.4 ± 0.7 S.E.</t>
-  </si>
-  <si>
-    <t>0.3 ± 0.1 S.E.</t>
-  </si>
-  <si>
-    <t>2.1 ± 0.8 S.E.</t>
-  </si>
-  <si>
-    <t>2.1 ± 0.9 S.E.</t>
-  </si>
-  <si>
-    <t>10.2 ± 2.4 S.E.</t>
-  </si>
-  <si>
-    <t>18.3 ± 5.4 S.E.</t>
-  </si>
-  <si>
-    <t>10.7 ± 2.6 S.E.</t>
-  </si>
-  <si>
-    <t>10.4 ± 2.4 S.E.</t>
-  </si>
-  <si>
-    <t>3.6 ± 1.7 S.E.</t>
-  </si>
-  <si>
-    <t>0.6 ± 0.5 S.E.</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74316F8-5DF3-B343-B79F-EBF7ED44DA31}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,7 +603,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="13" spans="1:6" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -783,7 +783,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -817,13 +817,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="6">
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -837,13 +837,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -857,13 +857,13 @@
         <v>5</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" s="6">
         <v>10.7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
@@ -877,13 +877,13 @@
         <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="6">
         <v>11.7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -897,13 +897,13 @@
         <v>6</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" s="6">
         <v>10.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -917,13 +917,13 @@
         <v>7</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="6">
         <v>9.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -937,13 +937,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="6">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -957,13 +957,13 @@
         <v>7</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -977,13 +977,13 @@
         <v>6</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" s="6">
         <v>1.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -997,13 +997,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1017,13 +1017,13 @@
         <v>11</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F25" s="6">
         <v>5.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -1037,13 +1037,13 @@
         <v>6</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" s="6">
         <v>13.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -1057,13 +1057,13 @@
         <v>11</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="6">
         <v>5.7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -1077,13 +1077,13 @@
         <v>7</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" s="6">
         <v>5.8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -1097,13 +1097,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" s="6">
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="9">
         <v>2</v>
